--- a/resultados/Venda de Drone/Sem SPAD 1 Drones/vel20/field_36ha_100ha_2%_12m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Sem SPAD 1 Drones/vel20/field_36ha_100ha_2%_12m_0_LM/Planilha_Unificada.xlsx
@@ -2877,28 +2877,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>164.3148259550463</v>
+        <v>232.800309428703</v>
       </c>
       <c r="AB2" t="n">
-        <v>224.8227939301011</v>
+        <v>318.5276537850048</v>
       </c>
       <c r="AC2" t="n">
-        <v>203.36602201825</v>
+        <v>288.1278215642282</v>
       </c>
       <c r="AD2" t="n">
-        <v>164314.8259550463</v>
+        <v>232800.309428703</v>
       </c>
       <c r="AE2" t="n">
-        <v>224822.7939301011</v>
+        <v>318527.6537850047</v>
       </c>
       <c r="AF2" t="n">
         <v>1.211046848547363e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.96296296296296</v>
       </c>
       <c r="AH2" t="n">
-        <v>203366.02201825</v>
+        <v>288127.8215642282</v>
       </c>
     </row>
     <row r="3">
@@ -2983,28 +2983,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>131.8480595743226</v>
+        <v>180.7233461183592</v>
       </c>
       <c r="AB3" t="n">
-        <v>180.4003318353734</v>
+        <v>247.2736551103544</v>
       </c>
       <c r="AC3" t="n">
-        <v>163.1831773585118</v>
+        <v>223.6742045174486</v>
       </c>
       <c r="AD3" t="n">
-        <v>131848.0595743226</v>
+        <v>180723.3461183592</v>
       </c>
       <c r="AE3" t="n">
-        <v>180400.3318353734</v>
+        <v>247273.6551103544</v>
       </c>
       <c r="AF3" t="n">
         <v>1.555175304368769e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.09259259259259</v>
       </c>
       <c r="AH3" t="n">
-        <v>163183.1773585118</v>
+        <v>223674.2045174486</v>
       </c>
     </row>
     <row r="4">
@@ -3089,28 +3089,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>118.2032029364393</v>
+        <v>157.3241336289086</v>
       </c>
       <c r="AB4" t="n">
-        <v>161.7308370148408</v>
+        <v>215.257820281905</v>
       </c>
       <c r="AC4" t="n">
-        <v>146.2954729208443</v>
+        <v>194.7139160305099</v>
       </c>
       <c r="AD4" t="n">
-        <v>118203.2029364393</v>
+        <v>157324.1336289085</v>
       </c>
       <c r="AE4" t="n">
-        <v>161730.8370148408</v>
+        <v>215257.820281905</v>
       </c>
       <c r="AF4" t="n">
         <v>1.702701547458223e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>10</v>
+        <v>9.212962962962964</v>
       </c>
       <c r="AH4" t="n">
-        <v>146295.4729208443</v>
+        <v>194713.9160305099</v>
       </c>
     </row>
     <row r="5">
@@ -3195,28 +3195,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>107.0390998284751</v>
+        <v>155.9475407614353</v>
       </c>
       <c r="AB5" t="n">
-        <v>146.4556186170633</v>
+        <v>213.374305189638</v>
       </c>
       <c r="AC5" t="n">
-        <v>132.4780999280423</v>
+        <v>193.0101609751182</v>
       </c>
       <c r="AD5" t="n">
-        <v>107039.0998284751</v>
+        <v>155947.5407614353</v>
       </c>
       <c r="AE5" t="n">
-        <v>146455.6186170633</v>
+        <v>213374.305189638</v>
       </c>
       <c r="AF5" t="n">
         <v>1.758896855056595e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.923611111111112</v>
       </c>
       <c r="AH5" t="n">
-        <v>132478.0999280423</v>
+        <v>193010.1609751182</v>
       </c>
     </row>
     <row r="6">
@@ -3301,28 +3301,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>105.7459272052413</v>
+        <v>154.6543681382016</v>
       </c>
       <c r="AB6" t="n">
-        <v>144.6862427832061</v>
+        <v>211.6049293557808</v>
       </c>
       <c r="AC6" t="n">
-        <v>130.8775908404333</v>
+        <v>191.4096518875092</v>
       </c>
       <c r="AD6" t="n">
-        <v>105745.9272052413</v>
+        <v>154654.3681382016</v>
       </c>
       <c r="AE6" t="n">
-        <v>144686.2427832061</v>
+        <v>211604.9293557808</v>
       </c>
       <c r="AF6" t="n">
         <v>1.808623735597916e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>9</v>
+        <v>8.680555555555555</v>
       </c>
       <c r="AH6" t="n">
-        <v>130877.5908404333</v>
+        <v>191409.6518875092</v>
       </c>
     </row>
     <row r="7">
@@ -3407,28 +3407,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>105.0825715586401</v>
+        <v>153.9910124916003</v>
       </c>
       <c r="AB7" t="n">
-        <v>143.7786103223411</v>
+        <v>210.6972968949158</v>
       </c>
       <c r="AC7" t="n">
-        <v>130.0565815477627</v>
+        <v>190.5886425948386</v>
       </c>
       <c r="AD7" t="n">
-        <v>105082.5715586401</v>
+        <v>153991.0124916004</v>
       </c>
       <c r="AE7" t="n">
-        <v>143778.6103223411</v>
+        <v>210697.2968949158</v>
       </c>
       <c r="AF7" t="n">
         <v>1.825194842230448e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>9</v>
+        <v>8.599537037037036</v>
       </c>
       <c r="AH7" t="n">
-        <v>130056.5815477627</v>
+        <v>190588.6425948386</v>
       </c>
     </row>
     <row r="8">
@@ -3513,28 +3513,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>103.9920239499241</v>
+        <v>143.0787892236125</v>
       </c>
       <c r="AB8" t="n">
-        <v>142.2864749725317</v>
+        <v>195.7667116063482</v>
       </c>
       <c r="AC8" t="n">
-        <v>128.7068535015135</v>
+        <v>177.0830114109991</v>
       </c>
       <c r="AD8" t="n">
-        <v>103992.0239499241</v>
+        <v>143078.7892236125</v>
       </c>
       <c r="AE8" t="n">
-        <v>142286.4749725317</v>
+        <v>195766.7116063482</v>
       </c>
       <c r="AF8" t="n">
         <v>1.864222374872367e-05</v>
       </c>
       <c r="AG8" t="n">
-        <v>9</v>
+        <v>8.414351851851851</v>
       </c>
       <c r="AH8" t="n">
-        <v>128706.8535015135</v>
+        <v>177083.0114109991</v>
       </c>
     </row>
     <row r="9">
@@ -3619,28 +3619,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>104.1277997722305</v>
+        <v>143.2145650459189</v>
       </c>
       <c r="AB9" t="n">
-        <v>142.4722494426177</v>
+        <v>195.9524860764342</v>
       </c>
       <c r="AC9" t="n">
-        <v>128.8748979169107</v>
+        <v>177.2510558263963</v>
       </c>
       <c r="AD9" t="n">
-        <v>104127.7997722305</v>
+        <v>143214.5650459189</v>
       </c>
       <c r="AE9" t="n">
-        <v>142472.2494426177</v>
+        <v>195952.4860764342</v>
       </c>
       <c r="AF9" t="n">
         <v>1.858187888414531e-05</v>
       </c>
       <c r="AG9" t="n">
-        <v>9</v>
+        <v>8.449074074074074</v>
       </c>
       <c r="AH9" t="n">
-        <v>128874.8979169107</v>
+        <v>177251.0558263963</v>
       </c>
     </row>
   </sheetData>
@@ -3916,28 +3916,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>143.9444793820157</v>
+        <v>201.9262890561783</v>
       </c>
       <c r="AB2" t="n">
-        <v>196.9511870726291</v>
+        <v>276.2844570456887</v>
       </c>
       <c r="AC2" t="n">
-        <v>178.1544422012004</v>
+        <v>249.916256233</v>
       </c>
       <c r="AD2" t="n">
-        <v>143944.4793820157</v>
+        <v>201926.2890561784</v>
       </c>
       <c r="AE2" t="n">
-        <v>196951.1870726291</v>
+        <v>276284.4570456886</v>
       </c>
       <c r="AF2" t="n">
         <v>1.501886239189088e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.43518518518519</v>
       </c>
       <c r="AH2" t="n">
-        <v>178154.4422012004</v>
+        <v>249916.256233</v>
       </c>
     </row>
     <row r="3">
@@ -4022,28 +4022,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>116.1234170384318</v>
+        <v>164.4246775624865</v>
       </c>
       <c r="AB3" t="n">
-        <v>158.8851821955102</v>
+        <v>224.9730977457115</v>
       </c>
       <c r="AC3" t="n">
-        <v>143.7214034035681</v>
+        <v>203.5019810486513</v>
       </c>
       <c r="AD3" t="n">
-        <v>116123.4170384318</v>
+        <v>164424.6775624865</v>
       </c>
       <c r="AE3" t="n">
-        <v>158885.1821955102</v>
+        <v>224973.0977457115</v>
       </c>
       <c r="AF3" t="n">
         <v>1.839521305112302e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.340277777777779</v>
       </c>
       <c r="AH3" t="n">
-        <v>143721.4034035681</v>
+        <v>203501.9810486513</v>
       </c>
     </row>
     <row r="4">
@@ -4128,28 +4128,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>104.0736793937167</v>
+        <v>152.4422597254758</v>
       </c>
       <c r="AB4" t="n">
-        <v>142.3981995531126</v>
+        <v>208.5782250341554</v>
       </c>
       <c r="AC4" t="n">
-        <v>128.8079152449303</v>
+        <v>188.6718119783325</v>
       </c>
       <c r="AD4" t="n">
-        <v>104073.6793937167</v>
+        <v>152442.2597254758</v>
       </c>
       <c r="AE4" t="n">
-        <v>142398.1995531126</v>
+        <v>208578.2250341554</v>
       </c>
       <c r="AF4" t="n">
         <v>1.957571165999364e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.773148148148149</v>
       </c>
       <c r="AH4" t="n">
-        <v>128807.9152449302</v>
+        <v>188671.8119783325</v>
       </c>
     </row>
     <row r="5">
@@ -4234,28 +4234,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>102.3732291104921</v>
+        <v>141.0281059032197</v>
       </c>
       <c r="AB5" t="n">
-        <v>140.071568457034</v>
+        <v>192.960876217625</v>
       </c>
       <c r="AC5" t="n">
-        <v>126.7033345552134</v>
+        <v>174.5449610137601</v>
       </c>
       <c r="AD5" t="n">
-        <v>102373.2291104921</v>
+        <v>141028.1059032197</v>
       </c>
       <c r="AE5" t="n">
-        <v>140071.568457034</v>
+        <v>192960.876217625</v>
       </c>
       <c r="AF5" t="n">
         <v>2.042458452843868e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.402777777777777</v>
       </c>
       <c r="AH5" t="n">
-        <v>126703.3345552134</v>
+        <v>174544.9610137601</v>
       </c>
     </row>
     <row r="6">
@@ -4340,28 +4340,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>101.6419827786985</v>
+        <v>140.296859571426</v>
       </c>
       <c r="AB6" t="n">
-        <v>139.0710449655631</v>
+        <v>191.9603527261541</v>
       </c>
       <c r="AC6" t="n">
-        <v>125.7982996215247</v>
+        <v>173.6399260800713</v>
       </c>
       <c r="AD6" t="n">
-        <v>101641.9827786985</v>
+        <v>140296.859571426</v>
       </c>
       <c r="AE6" t="n">
-        <v>139071.0449655631</v>
+        <v>191960.3527261541</v>
       </c>
       <c r="AF6" t="n">
         <v>2.06081286183297e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>9</v>
+        <v>8.333333333333334</v>
       </c>
       <c r="AH6" t="n">
-        <v>125798.2996215247</v>
+        <v>173639.9260800713</v>
       </c>
     </row>
     <row r="7">
@@ -4446,28 +4446,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>101.3106645108949</v>
+        <v>139.9655413036224</v>
       </c>
       <c r="AB7" t="n">
-        <v>138.6177206948241</v>
+        <v>191.5070284554151</v>
       </c>
       <c r="AC7" t="n">
-        <v>125.3882399829402</v>
+        <v>173.2298664414869</v>
       </c>
       <c r="AD7" t="n">
-        <v>101310.6645108949</v>
+        <v>139965.5413036224</v>
       </c>
       <c r="AE7" t="n">
-        <v>138617.7206948241</v>
+        <v>191507.0284554151</v>
       </c>
       <c r="AF7" t="n">
         <v>2.080398811603071e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>9</v>
+        <v>8.252314814814815</v>
       </c>
       <c r="AH7" t="n">
-        <v>125388.2399829402</v>
+        <v>173229.8664414869</v>
       </c>
     </row>
   </sheetData>
@@ -4743,28 +4743,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>96.54439532331467</v>
+        <v>143.2876386031658</v>
       </c>
       <c r="AB2" t="n">
-        <v>132.0963009194238</v>
+        <v>196.0524685412372</v>
       </c>
       <c r="AC2" t="n">
-        <v>119.4892153580319</v>
+        <v>177.3414961050848</v>
       </c>
       <c r="AD2" t="n">
-        <v>96544.39532331467</v>
+        <v>143287.6386031658</v>
       </c>
       <c r="AE2" t="n">
-        <v>132096.3009194238</v>
+        <v>196052.4685412372</v>
       </c>
       <c r="AF2" t="n">
         <v>2.779916755282367e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.622685185185185</v>
       </c>
       <c r="AH2" t="n">
-        <v>119489.2153580319</v>
+        <v>177341.4961050848</v>
       </c>
     </row>
     <row r="3">
@@ -4849,28 +4849,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>94.62941371206804</v>
+        <v>131.9840208632692</v>
       </c>
       <c r="AB3" t="n">
-        <v>129.4761385958913</v>
+        <v>180.5863600690988</v>
       </c>
       <c r="AC3" t="n">
-        <v>117.1191176492356</v>
+        <v>163.3514513187028</v>
       </c>
       <c r="AD3" t="n">
-        <v>94629.41371206804</v>
+        <v>131984.0208632692</v>
       </c>
       <c r="AE3" t="n">
-        <v>129476.1385958913</v>
+        <v>180586.3600690988</v>
       </c>
       <c r="AF3" t="n">
         <v>2.98720723717602e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.020833333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>117119.1176492356</v>
+        <v>163351.4513187028</v>
       </c>
     </row>
   </sheetData>
@@ -5146,28 +5146,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>111.9086855216474</v>
+        <v>159.3215361640411</v>
       </c>
       <c r="AB2" t="n">
-        <v>153.1184005934172</v>
+        <v>217.9907545496528</v>
       </c>
       <c r="AC2" t="n">
-        <v>138.5049953438482</v>
+        <v>197.186022887442</v>
       </c>
       <c r="AD2" t="n">
-        <v>111908.6855216474</v>
+        <v>159321.5361640411</v>
       </c>
       <c r="AE2" t="n">
-        <v>153118.4005934172</v>
+        <v>217990.7545496529</v>
       </c>
       <c r="AF2" t="n">
         <v>2.180274414430165e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.525462962962964</v>
       </c>
       <c r="AH2" t="n">
-        <v>138504.9953438482</v>
+        <v>197186.022887442</v>
       </c>
     </row>
     <row r="3">
@@ -5252,28 +5252,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>98.02152437340762</v>
+        <v>135.8844850796182</v>
       </c>
       <c r="AB3" t="n">
-        <v>134.1173740520945</v>
+        <v>185.9231472862416</v>
       </c>
       <c r="AC3" t="n">
-        <v>121.3174001075151</v>
+        <v>168.1789030540711</v>
       </c>
       <c r="AD3" t="n">
-        <v>98021.52437340762</v>
+        <v>135884.4850796182</v>
       </c>
       <c r="AE3" t="n">
-        <v>134117.3740520945</v>
+        <v>185923.1472862416</v>
       </c>
       <c r="AF3" t="n">
         <v>2.516738729644454e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.252314814814815</v>
       </c>
       <c r="AH3" t="n">
-        <v>121317.4001075151</v>
+        <v>168178.9030540711</v>
       </c>
     </row>
     <row r="4">
@@ -5358,28 +5358,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>87.32572177691019</v>
+        <v>134.6702415817424</v>
       </c>
       <c r="AB4" t="n">
-        <v>119.482905074066</v>
+        <v>184.2617657638062</v>
       </c>
       <c r="AC4" t="n">
-        <v>108.0796243091388</v>
+        <v>166.6760814523728</v>
       </c>
       <c r="AD4" t="n">
-        <v>87325.72177691018</v>
+        <v>134670.2415817424</v>
       </c>
       <c r="AE4" t="n">
-        <v>119482.905074066</v>
+        <v>184261.7657638062</v>
       </c>
       <c r="AF4" t="n">
         <v>2.594505748342171e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.997685185185186</v>
       </c>
       <c r="AH4" t="n">
-        <v>108079.6243091388</v>
+        <v>166676.0814523728</v>
       </c>
     </row>
   </sheetData>
@@ -5655,28 +5655,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>92.8467120151965</v>
+        <v>129.7843649722003</v>
       </c>
       <c r="AB2" t="n">
-        <v>127.0369674869847</v>
+        <v>177.5766938369707</v>
       </c>
       <c r="AC2" t="n">
-        <v>114.9127376075641</v>
+        <v>160.629023407675</v>
       </c>
       <c r="AD2" t="n">
-        <v>92846.71201519651</v>
+        <v>129784.3649722003</v>
       </c>
       <c r="AE2" t="n">
-        <v>127036.9674869847</v>
+        <v>177576.6938369707</v>
       </c>
       <c r="AF2" t="n">
         <v>3.36932349628563e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.148148148148149</v>
       </c>
       <c r="AH2" t="n">
-        <v>114912.7376075641</v>
+        <v>160629.023407675</v>
       </c>
     </row>
     <row r="3">
@@ -5761,28 +5761,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>92.77041421692016</v>
+        <v>129.708067173924</v>
       </c>
       <c r="AB3" t="n">
-        <v>126.9325734733618</v>
+        <v>177.4722998233478</v>
       </c>
       <c r="AC3" t="n">
-        <v>114.8183068120834</v>
+        <v>160.5345926121943</v>
       </c>
       <c r="AD3" t="n">
-        <v>92770.41421692017</v>
+        <v>129708.0671739239</v>
       </c>
       <c r="AE3" t="n">
-        <v>126932.5734733618</v>
+        <v>177472.2998233478</v>
       </c>
       <c r="AF3" t="n">
         <v>3.393684910187949e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.090277777777779</v>
       </c>
       <c r="AH3" t="n">
-        <v>114818.3068120834</v>
+        <v>160534.5926121943</v>
       </c>
     </row>
   </sheetData>
@@ -6058,28 +6058,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>146.063230364436</v>
+        <v>204.3168025573958</v>
       </c>
       <c r="AB2" t="n">
-        <v>199.8501556394715</v>
+        <v>279.5552630800652</v>
       </c>
       <c r="AC2" t="n">
-        <v>180.7767372767522</v>
+        <v>252.8749011300618</v>
       </c>
       <c r="AD2" t="n">
-        <v>146063.230364436</v>
+        <v>204316.8025573958</v>
       </c>
       <c r="AE2" t="n">
-        <v>199850.1556394715</v>
+        <v>279555.2630800652</v>
       </c>
       <c r="AF2" t="n">
         <v>1.428696507925963e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.72453703703704</v>
       </c>
       <c r="AH2" t="n">
-        <v>180776.7372767522</v>
+        <v>252874.9011300618</v>
       </c>
     </row>
     <row r="3">
@@ -6164,28 +6164,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>117.5214740452351</v>
+        <v>166.0661175393683</v>
       </c>
       <c r="AB3" t="n">
-        <v>160.7980654701397</v>
+        <v>227.2189883373011</v>
       </c>
       <c r="AC3" t="n">
-        <v>145.4517237832161</v>
+        <v>205.5335269943075</v>
       </c>
       <c r="AD3" t="n">
-        <v>117521.4740452351</v>
+        <v>166066.1175393683</v>
       </c>
       <c r="AE3" t="n">
-        <v>160798.0654701397</v>
+        <v>227218.9883373011</v>
       </c>
       <c r="AF3" t="n">
         <v>1.762142524293761e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.513888888888891</v>
       </c>
       <c r="AH3" t="n">
-        <v>145451.7237832161</v>
+        <v>205533.5269943075</v>
       </c>
     </row>
     <row r="4">
@@ -6270,28 +6270,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>104.4806173740827</v>
+        <v>152.9910954494351</v>
       </c>
       <c r="AB4" t="n">
-        <v>142.9549900506857</v>
+        <v>209.3291662845994</v>
       </c>
       <c r="AC4" t="n">
-        <v>129.3115664388756</v>
+        <v>189.351084449787</v>
       </c>
       <c r="AD4" t="n">
-        <v>104480.6173740827</v>
+        <v>152991.0954494351</v>
       </c>
       <c r="AE4" t="n">
-        <v>142954.9900506857</v>
+        <v>209329.1662845993</v>
       </c>
       <c r="AF4" t="n">
         <v>1.919142617892095e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.726851851851853</v>
       </c>
       <c r="AH4" t="n">
-        <v>129311.5664388756</v>
+        <v>189351.084449787</v>
       </c>
     </row>
     <row r="5">
@@ -6376,28 +6376,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>103.4232798622518</v>
+        <v>142.2931600763391</v>
       </c>
       <c r="AB5" t="n">
-        <v>141.5082942205605</v>
+        <v>194.6917791475374</v>
       </c>
       <c r="AC5" t="n">
-        <v>128.0029412283267</v>
+        <v>176.1106689973797</v>
       </c>
       <c r="AD5" t="n">
-        <v>103423.2798622518</v>
+        <v>142293.1600763391</v>
       </c>
       <c r="AE5" t="n">
-        <v>141508.2942205605</v>
+        <v>194691.7791475374</v>
       </c>
       <c r="AF5" t="n">
         <v>1.970732706750424e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.506944444444445</v>
       </c>
       <c r="AH5" t="n">
-        <v>128002.9412283267</v>
+        <v>176110.6689973797</v>
       </c>
     </row>
     <row r="6">
@@ -6482,28 +6482,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>102.4830788473312</v>
+        <v>141.2514738349333</v>
       </c>
       <c r="AB6" t="n">
-        <v>140.2218697132055</v>
+        <v>193.2664980760931</v>
       </c>
       <c r="AC6" t="n">
-        <v>126.8392912704451</v>
+        <v>174.8214147509991</v>
       </c>
       <c r="AD6" t="n">
-        <v>102483.0788473312</v>
+        <v>141251.4738349333</v>
       </c>
       <c r="AE6" t="n">
-        <v>140221.8697132054</v>
+        <v>193266.4980760931</v>
       </c>
       <c r="AF6" t="n">
         <v>2.007075991351717e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>9</v>
+        <v>8.344907407407407</v>
       </c>
       <c r="AH6" t="n">
-        <v>126839.2912704451</v>
+        <v>174821.4147509991</v>
       </c>
     </row>
     <row r="7">
@@ -6588,28 +6588,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>101.9810744106836</v>
+        <v>140.7494693982857</v>
       </c>
       <c r="AB7" t="n">
-        <v>139.5350050961119</v>
+        <v>192.5796334589996</v>
       </c>
       <c r="AC7" t="n">
-        <v>126.2179800483862</v>
+        <v>174.2001035289402</v>
       </c>
       <c r="AD7" t="n">
-        <v>101981.0744106836</v>
+        <v>140749.4693982857</v>
       </c>
       <c r="AE7" t="n">
-        <v>139535.0050961119</v>
+        <v>192579.6334589996</v>
       </c>
       <c r="AF7" t="n">
         <v>2.015459561783648e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>9</v>
+        <v>8.310185185185185</v>
       </c>
       <c r="AH7" t="n">
-        <v>126217.9800483861</v>
+        <v>174200.1035289401</v>
       </c>
     </row>
     <row r="8">
@@ -6694,28 +6694,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>102.0408238123888</v>
+        <v>140.8092187999909</v>
       </c>
       <c r="AB8" t="n">
-        <v>139.6167568634824</v>
+        <v>192.6613852263701</v>
       </c>
       <c r="AC8" t="n">
-        <v>126.2919295418182</v>
+        <v>174.2740530223722</v>
       </c>
       <c r="AD8" t="n">
-        <v>102040.8238123888</v>
+        <v>140809.2187999909</v>
       </c>
       <c r="AE8" t="n">
-        <v>139616.7568634824</v>
+        <v>192661.3852263701</v>
       </c>
       <c r="AF8" t="n">
         <v>2.014141936724398e-05</v>
       </c>
       <c r="AG8" t="n">
-        <v>9</v>
+        <v>8.32175925925926</v>
       </c>
       <c r="AH8" t="n">
-        <v>126291.9295418182</v>
+        <v>174274.0530223722</v>
       </c>
     </row>
   </sheetData>
@@ -6991,28 +6991,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>91.85473560695796</v>
+        <v>128.545489251767</v>
       </c>
       <c r="AB2" t="n">
-        <v>125.6797016023228</v>
+        <v>175.8816094209354</v>
       </c>
       <c r="AC2" t="n">
-        <v>113.6850072739993</v>
+        <v>159.0957154692396</v>
       </c>
       <c r="AD2" t="n">
-        <v>91854.73560695795</v>
+        <v>128545.489251767</v>
       </c>
       <c r="AE2" t="n">
-        <v>125679.7016023228</v>
+        <v>175881.6094209354</v>
       </c>
       <c r="AF2" t="n">
         <v>3.6210716952263e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.298611111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>113685.0072739993</v>
+        <v>159095.7154692396</v>
       </c>
     </row>
   </sheetData>
@@ -7288,28 +7288,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>127.51033301311</v>
+        <v>175.3852321233701</v>
       </c>
       <c r="AB2" t="n">
-        <v>174.4652629873354</v>
+        <v>239.9698120414453</v>
       </c>
       <c r="AC2" t="n">
-        <v>157.8145431514072</v>
+        <v>217.0674299800257</v>
       </c>
       <c r="AD2" t="n">
-        <v>127510.33301311</v>
+        <v>175385.2321233701</v>
       </c>
       <c r="AE2" t="n">
-        <v>174465.2629873354</v>
+        <v>239969.8120414453</v>
       </c>
       <c r="AF2" t="n">
         <v>1.791080065048439e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.42824074074074</v>
       </c>
       <c r="AH2" t="n">
-        <v>157814.5431514072</v>
+        <v>217067.4299800257</v>
       </c>
     </row>
     <row r="3">
@@ -7394,28 +7394,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>102.3534867153932</v>
+        <v>150.261540214577</v>
       </c>
       <c r="AB3" t="n">
-        <v>140.0445560410866</v>
+        <v>205.5944683927902</v>
       </c>
       <c r="AC3" t="n">
-        <v>126.6789001663319</v>
+        <v>185.9728208830895</v>
       </c>
       <c r="AD3" t="n">
-        <v>102353.4867153932</v>
+        <v>150261.540214577</v>
       </c>
       <c r="AE3" t="n">
-        <v>140044.5560410866</v>
+        <v>205594.4683927902</v>
       </c>
       <c r="AF3" t="n">
         <v>2.114488344368656e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.831018518518519</v>
       </c>
       <c r="AH3" t="n">
-        <v>126678.9001663319</v>
+        <v>185972.8208830895</v>
       </c>
     </row>
     <row r="4">
@@ -7500,28 +7500,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>100.4897243349402</v>
+        <v>138.7761796616075</v>
       </c>
       <c r="AB4" t="n">
-        <v>137.494474128759</v>
+        <v>189.8796913858786</v>
       </c>
       <c r="AC4" t="n">
-        <v>124.3721944926535</v>
+        <v>171.7578401378845</v>
       </c>
       <c r="AD4" t="n">
-        <v>100489.7243349402</v>
+        <v>138776.1796616075</v>
       </c>
       <c r="AE4" t="n">
-        <v>137494.4741287589</v>
+        <v>189879.6913858786</v>
       </c>
       <c r="AF4" t="n">
         <v>2.228717858840452e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.37962962962963</v>
       </c>
       <c r="AH4" t="n">
-        <v>124372.1944926535</v>
+        <v>171757.8401378845</v>
       </c>
     </row>
     <row r="5">
@@ -7606,28 +7606,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>99.08222810825006</v>
+        <v>137.3686834349173</v>
       </c>
       <c r="AB5" t="n">
-        <v>135.5686756970513</v>
+        <v>187.953892954171</v>
       </c>
       <c r="AC5" t="n">
-        <v>122.6301915603924</v>
+        <v>170.0158372056234</v>
       </c>
       <c r="AD5" t="n">
-        <v>99082.22810825007</v>
+        <v>137368.6834349173</v>
       </c>
       <c r="AE5" t="n">
-        <v>135568.6756970513</v>
+        <v>187953.892954171</v>
       </c>
       <c r="AF5" t="n">
         <v>2.306887632515007e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.090277777777779</v>
       </c>
       <c r="AH5" t="n">
-        <v>122630.1915603924</v>
+        <v>170015.8372056234</v>
       </c>
     </row>
     <row r="6">
@@ -7712,28 +7712,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>99.17803005717859</v>
+        <v>137.4644853838459</v>
       </c>
       <c r="AB6" t="n">
-        <v>135.6997561500589</v>
+        <v>188.0849734071786</v>
       </c>
       <c r="AC6" t="n">
-        <v>122.7487618789376</v>
+        <v>170.1344075241686</v>
       </c>
       <c r="AD6" t="n">
-        <v>99178.03005717859</v>
+        <v>137464.4853838459</v>
       </c>
       <c r="AE6" t="n">
-        <v>135699.7561500589</v>
+        <v>188084.9734071786</v>
       </c>
       <c r="AF6" t="n">
         <v>2.302402349319645e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>9</v>
+        <v>8.113425925925926</v>
       </c>
       <c r="AH6" t="n">
-        <v>122748.7618789376</v>
+        <v>170134.4075241686</v>
       </c>
     </row>
   </sheetData>
@@ -8009,28 +8009,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>141.6823755557658</v>
+        <v>189.9046733339913</v>
       </c>
       <c r="AB2" t="n">
-        <v>193.8560768205782</v>
+        <v>259.8359520583455</v>
       </c>
       <c r="AC2" t="n">
-        <v>175.3547249275896</v>
+        <v>235.037573476022</v>
       </c>
       <c r="AD2" t="n">
-        <v>141682.3755557658</v>
+        <v>189904.6733339913</v>
       </c>
       <c r="AE2" t="n">
-        <v>193856.0768205782</v>
+        <v>259835.9520583455</v>
       </c>
       <c r="AF2" t="n">
         <v>1.588997689510777e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.08796296296296</v>
       </c>
       <c r="AH2" t="n">
-        <v>175354.7249275896</v>
+        <v>235037.573476022</v>
       </c>
     </row>
     <row r="3">
@@ -8115,28 +8115,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>114.7194985976137</v>
+        <v>153.2907059424093</v>
       </c>
       <c r="AB3" t="n">
-        <v>156.9642790482735</v>
+        <v>209.7391065789686</v>
       </c>
       <c r="AC3" t="n">
-        <v>141.9838285566986</v>
+        <v>189.7219006178166</v>
       </c>
       <c r="AD3" t="n">
-        <v>114719.4985976137</v>
+        <v>153290.7059424093</v>
       </c>
       <c r="AE3" t="n">
-        <v>156964.2790482735</v>
+        <v>209739.1065789686</v>
       </c>
       <c r="AF3" t="n">
         <v>1.925989043400449e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.155092592592593</v>
       </c>
       <c r="AH3" t="n">
-        <v>141983.8285566986</v>
+        <v>189721.9006178166</v>
       </c>
     </row>
     <row r="4">
@@ -8221,28 +8221,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>102.9059351022915</v>
+        <v>151.1272218506598</v>
       </c>
       <c r="AB4" t="n">
-        <v>140.8004402963432</v>
+        <v>206.7789321984564</v>
       </c>
       <c r="AC4" t="n">
-        <v>127.3626438891572</v>
+        <v>187.0442411255488</v>
       </c>
       <c r="AD4" t="n">
-        <v>102905.9351022915</v>
+        <v>151127.2218506598</v>
       </c>
       <c r="AE4" t="n">
-        <v>140800.4402963432</v>
+        <v>206778.9321984564</v>
       </c>
       <c r="AF4" t="n">
         <v>2.041060747575718e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.63425925925926</v>
       </c>
       <c r="AH4" t="n">
-        <v>127362.6438891572</v>
+        <v>187044.2411255488</v>
       </c>
     </row>
     <row r="5">
@@ -8327,28 +8327,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>101.3238798937073</v>
+        <v>139.8609218197221</v>
       </c>
       <c r="AB5" t="n">
-        <v>138.6358025646094</v>
+        <v>191.3638834620568</v>
       </c>
       <c r="AC5" t="n">
-        <v>125.4045961444513</v>
+        <v>173.1003830053894</v>
       </c>
       <c r="AD5" t="n">
-        <v>101323.8798937073</v>
+        <v>139860.9218197221</v>
       </c>
       <c r="AE5" t="n">
-        <v>138635.8025646094</v>
+        <v>191363.8834620568</v>
       </c>
       <c r="AF5" t="n">
         <v>2.120069747213264e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.310185185185185</v>
       </c>
       <c r="AH5" t="n">
-        <v>125404.5961444513</v>
+        <v>173100.3830053894</v>
       </c>
     </row>
     <row r="6">
@@ -8433,28 +8433,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>100.3778101938537</v>
+        <v>138.9148521198685</v>
       </c>
       <c r="AB6" t="n">
-        <v>137.3413482636209</v>
+        <v>190.0694291610683</v>
       </c>
       <c r="AC6" t="n">
-        <v>124.2336827451707</v>
+        <v>171.9294696061088</v>
       </c>
       <c r="AD6" t="n">
-        <v>100377.8101938537</v>
+        <v>138914.8521198685</v>
       </c>
       <c r="AE6" t="n">
-        <v>137341.3482636209</v>
+        <v>190069.4291610683</v>
       </c>
       <c r="AF6" t="n">
         <v>2.159909289050547e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>9</v>
+        <v>8.159722222222223</v>
       </c>
       <c r="AH6" t="n">
-        <v>124233.6827451707</v>
+        <v>171929.4696061088</v>
       </c>
     </row>
     <row r="7">
@@ -8539,28 +8539,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>100.4379136203862</v>
+        <v>138.9749555464011</v>
       </c>
       <c r="AB7" t="n">
-        <v>137.4235844233788</v>
+        <v>190.1516653208261</v>
       </c>
       <c r="AC7" t="n">
-        <v>124.3080704012605</v>
+        <v>172.0038572621986</v>
       </c>
       <c r="AD7" t="n">
-        <v>100437.9136203862</v>
+        <v>138974.9555464011</v>
       </c>
       <c r="AE7" t="n">
-        <v>137423.5844233788</v>
+        <v>190151.6653208261</v>
       </c>
       <c r="AF7" t="n">
         <v>2.159833143137249e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>9</v>
+        <v>8.159722222222223</v>
       </c>
       <c r="AH7" t="n">
-        <v>124308.0704012605</v>
+        <v>172003.8572621986</v>
       </c>
     </row>
   </sheetData>
@@ -8836,28 +8836,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>161.3600207118082</v>
+        <v>219.9711959912154</v>
       </c>
       <c r="AB2" t="n">
-        <v>220.7798990394975</v>
+        <v>300.9742947993029</v>
       </c>
       <c r="AC2" t="n">
-        <v>199.7089753417657</v>
+        <v>272.2497305238221</v>
       </c>
       <c r="AD2" t="n">
-        <v>161360.0207118082</v>
+        <v>219971.1959912154</v>
       </c>
       <c r="AE2" t="n">
-        <v>220779.8990394975</v>
+        <v>300974.2947993029</v>
       </c>
       <c r="AF2" t="n">
         <v>1.278215332955569e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.53472222222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>199708.9753417657</v>
+        <v>272249.7305238221</v>
       </c>
     </row>
     <row r="3">
@@ -8942,28 +8942,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>120.5233823709573</v>
+        <v>179.0320613940221</v>
       </c>
       <c r="AB3" t="n">
-        <v>164.9054088762393</v>
+        <v>244.9595647363014</v>
       </c>
       <c r="AC3" t="n">
-        <v>149.1670680993316</v>
+        <v>221.5809676808483</v>
       </c>
       <c r="AD3" t="n">
-        <v>120523.3823709573</v>
+        <v>179032.0613940221</v>
       </c>
       <c r="AE3" t="n">
-        <v>164905.4088762393</v>
+        <v>244959.5647363014</v>
       </c>
       <c r="AF3" t="n">
         <v>1.617673574288959e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.907407407407408</v>
       </c>
       <c r="AH3" t="n">
-        <v>149167.0680993316</v>
+        <v>221580.9676808483</v>
       </c>
     </row>
     <row r="4">
@@ -9048,28 +9048,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>117.1606470748825</v>
+        <v>156.1788325930431</v>
       </c>
       <c r="AB4" t="n">
-        <v>160.304366090741</v>
+        <v>213.690768877519</v>
       </c>
       <c r="AC4" t="n">
-        <v>145.0051423796757</v>
+        <v>193.2964218127876</v>
       </c>
       <c r="AD4" t="n">
-        <v>117160.6470748825</v>
+        <v>156178.8325930431</v>
       </c>
       <c r="AE4" t="n">
-        <v>160304.366090741</v>
+        <v>213690.7688775191</v>
       </c>
       <c r="AF4" t="n">
         <v>1.756502580981097e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>10</v>
+        <v>9.12037037037037</v>
       </c>
       <c r="AH4" t="n">
-        <v>145005.1423796757</v>
+        <v>193296.4218127876</v>
       </c>
     </row>
     <row r="5">
@@ -9154,28 +9154,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>105.6421277719905</v>
+        <v>154.422137237065</v>
       </c>
       <c r="AB5" t="n">
-        <v>144.5442198193247</v>
+        <v>211.2871807915416</v>
       </c>
       <c r="AC5" t="n">
-        <v>130.7491223488941</v>
+        <v>191.122228800278</v>
       </c>
       <c r="AD5" t="n">
-        <v>105642.1277719905</v>
+        <v>154422.137237065</v>
       </c>
       <c r="AE5" t="n">
-        <v>144544.2198193247</v>
+        <v>211287.1807915416</v>
       </c>
       <c r="AF5" t="n">
         <v>1.832783776321512e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.738425925925926</v>
       </c>
       <c r="AH5" t="n">
-        <v>130749.1223488941</v>
+        <v>191122.228800278</v>
       </c>
     </row>
     <row r="6">
@@ -9260,28 +9260,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>104.8718159179729</v>
+        <v>153.6518253830473</v>
       </c>
       <c r="AB6" t="n">
-        <v>143.4902451568977</v>
+        <v>210.2332061291146</v>
       </c>
       <c r="AC6" t="n">
-        <v>129.7957375489861</v>
+        <v>190.1688440003699</v>
       </c>
       <c r="AD6" t="n">
-        <v>104871.8159179729</v>
+        <v>153651.8253830473</v>
       </c>
       <c r="AE6" t="n">
-        <v>143490.2451568977</v>
+        <v>210233.2061291146</v>
       </c>
       <c r="AF6" t="n">
         <v>1.86098428356442e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>9</v>
+        <v>8.611111111111112</v>
       </c>
       <c r="AH6" t="n">
-        <v>129795.7375489861</v>
+        <v>190168.8440003699</v>
       </c>
     </row>
     <row r="7">
@@ -9366,28 +9366,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>103.9319984511114</v>
+        <v>142.9160185504912</v>
       </c>
       <c r="AB7" t="n">
-        <v>142.2043454369181</v>
+        <v>195.5440015904484</v>
       </c>
       <c r="AC7" t="n">
-        <v>128.6325622935093</v>
+        <v>176.8815565264412</v>
       </c>
       <c r="AD7" t="n">
-        <v>103931.9984511114</v>
+        <v>142916.0185504912</v>
       </c>
       <c r="AE7" t="n">
-        <v>142204.3454369181</v>
+        <v>195544.0015904484</v>
       </c>
       <c r="AF7" t="n">
         <v>1.892645825078672e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>9</v>
+        <v>8.460648148148147</v>
       </c>
       <c r="AH7" t="n">
-        <v>128632.5622935093</v>
+        <v>176881.5565264412</v>
       </c>
     </row>
     <row r="8">
@@ -9472,28 +9472,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>103.3410877984877</v>
+        <v>142.3251078978676</v>
       </c>
       <c r="AB8" t="n">
-        <v>141.3958354128607</v>
+        <v>194.735491566391</v>
       </c>
       <c r="AC8" t="n">
-        <v>127.9012153313968</v>
+        <v>176.1502095643287</v>
       </c>
       <c r="AD8" t="n">
-        <v>103341.0877984877</v>
+        <v>142325.1078978676</v>
       </c>
       <c r="AE8" t="n">
-        <v>141395.8354128607</v>
+        <v>194735.491566391</v>
       </c>
       <c r="AF8" t="n">
         <v>1.910117126080415e-05</v>
       </c>
       <c r="AG8" t="n">
-        <v>9</v>
+        <v>8.391203703703704</v>
       </c>
       <c r="AH8" t="n">
-        <v>127901.2153313968</v>
+        <v>176150.2095643287</v>
       </c>
     </row>
     <row r="9">
@@ -9578,28 +9578,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>103.308064577957</v>
+        <v>142.2920846773368</v>
       </c>
       <c r="AB9" t="n">
-        <v>141.3506515856488</v>
+        <v>194.6903077391792</v>
       </c>
       <c r="AC9" t="n">
-        <v>127.8603437852381</v>
+        <v>176.1093380181701</v>
       </c>
       <c r="AD9" t="n">
-        <v>103308.064577957</v>
+        <v>142292.0846773368</v>
       </c>
       <c r="AE9" t="n">
-        <v>141350.6515856488</v>
+        <v>194690.3077391792</v>
       </c>
       <c r="AF9" t="n">
         <v>1.914076549286833e-05</v>
       </c>
       <c r="AG9" t="n">
-        <v>9</v>
+        <v>8.368055555555555</v>
       </c>
       <c r="AH9" t="n">
-        <v>127860.3437852381</v>
+        <v>176109.3380181701</v>
       </c>
     </row>
   </sheetData>
@@ -9875,28 +9875,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>113.9238802091842</v>
+        <v>161.5225901552139</v>
       </c>
       <c r="AB2" t="n">
-        <v>155.8756788690187</v>
+        <v>221.0023337240227</v>
       </c>
       <c r="AC2" t="n">
-        <v>140.9991228506916</v>
+        <v>199.9101811721889</v>
       </c>
       <c r="AD2" t="n">
-        <v>113923.8802091842</v>
+        <v>161522.5901552139</v>
       </c>
       <c r="AE2" t="n">
-        <v>155875.6788690187</v>
+        <v>221002.3337240227</v>
       </c>
       <c r="AF2" t="n">
         <v>2.029509841004883e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.837962962962964</v>
       </c>
       <c r="AH2" t="n">
-        <v>140999.1228506916</v>
+        <v>199910.1811721889</v>
       </c>
     </row>
     <row r="3">
@@ -9981,28 +9981,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>99.48894649211418</v>
+        <v>137.5005946412335</v>
       </c>
       <c r="AB3" t="n">
-        <v>136.1251657330026</v>
+        <v>188.1343796861644</v>
       </c>
       <c r="AC3" t="n">
-        <v>123.1335709683513</v>
+        <v>170.1790985372301</v>
       </c>
       <c r="AD3" t="n">
-        <v>99488.94649211418</v>
+        <v>137500.5946412335</v>
       </c>
       <c r="AE3" t="n">
-        <v>136125.1657330026</v>
+        <v>188134.3796861643</v>
       </c>
       <c r="AF3" t="n">
         <v>2.366193810104432e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.4375</v>
       </c>
       <c r="AH3" t="n">
-        <v>123133.5709683514</v>
+        <v>170179.0985372301</v>
       </c>
     </row>
     <row r="4">
@@ -10087,28 +10087,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>97.61875723278013</v>
+        <v>135.6304053818994</v>
       </c>
       <c r="AB4" t="n">
-        <v>133.566290281456</v>
+        <v>185.5755042346177</v>
       </c>
       <c r="AC4" t="n">
-        <v>120.8189109984953</v>
+        <v>167.864438567374</v>
       </c>
       <c r="AD4" t="n">
-        <v>97618.75723278013</v>
+        <v>135630.4053818994</v>
       </c>
       <c r="AE4" t="n">
-        <v>133566.290281456</v>
+        <v>185575.5042346177</v>
       </c>
       <c r="AF4" t="n">
         <v>2.493045725876509e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.00925925925926</v>
       </c>
       <c r="AH4" t="n">
-        <v>120818.9109984953</v>
+        <v>167864.438567374</v>
       </c>
     </row>
     <row r="5">
@@ -10193,28 +10193,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>97.82167083900046</v>
+        <v>135.8333189881198</v>
       </c>
       <c r="AB5" t="n">
-        <v>133.843925629403</v>
+        <v>185.8531395825648</v>
       </c>
       <c r="AC5" t="n">
-        <v>121.070049218498</v>
+        <v>168.1155767873767</v>
       </c>
       <c r="AD5" t="n">
-        <v>97821.67083900046</v>
+        <v>135833.3189881198</v>
       </c>
       <c r="AE5" t="n">
-        <v>133843.925629403</v>
+        <v>185853.1395825648</v>
       </c>
       <c r="AF5" t="n">
         <v>2.472404244071964e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.078703703703704</v>
       </c>
       <c r="AH5" t="n">
-        <v>121070.049218498</v>
+        <v>168115.5767873767</v>
       </c>
     </row>
   </sheetData>
@@ -10490,28 +10490,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>98.0109520061342</v>
+        <v>144.9814534305868</v>
       </c>
       <c r="AB2" t="n">
-        <v>134.102908472771</v>
+        <v>198.3700207139497</v>
       </c>
       <c r="AC2" t="n">
-        <v>121.3043151027797</v>
+        <v>179.4378643511393</v>
       </c>
       <c r="AD2" t="n">
-        <v>98010.9520061342</v>
+        <v>144981.4534305868</v>
       </c>
       <c r="AE2" t="n">
-        <v>134102.908472771</v>
+        <v>198370.0207139498</v>
       </c>
       <c r="AF2" t="n">
         <v>2.5900098100289e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.773148148148149</v>
       </c>
       <c r="AH2" t="n">
-        <v>121304.3151027797</v>
+        <v>179437.8643511393</v>
       </c>
     </row>
     <row r="3">
@@ -10596,28 +10596,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>95.58783235612349</v>
+        <v>133.1242460230058</v>
       </c>
       <c r="AB3" t="n">
-        <v>130.7874892671337</v>
+        <v>182.1464664358334</v>
       </c>
       <c r="AC3" t="n">
-        <v>118.3053148529073</v>
+        <v>164.7626633234198</v>
       </c>
       <c r="AD3" t="n">
-        <v>95587.83235612349</v>
+        <v>133124.2460230058</v>
       </c>
       <c r="AE3" t="n">
-        <v>130787.4892671337</v>
+        <v>182146.4664358335</v>
       </c>
       <c r="AF3" t="n">
         <v>2.81724083610369e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.06712962962963</v>
       </c>
       <c r="AH3" t="n">
-        <v>118305.3148529073</v>
+        <v>164762.6633234198</v>
       </c>
     </row>
     <row r="4">
@@ -10702,28 +10702,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>95.57543025683012</v>
+        <v>133.1118439237124</v>
       </c>
       <c r="AB4" t="n">
-        <v>130.7705201677385</v>
+        <v>182.1294973364383</v>
       </c>
       <c r="AC4" t="n">
-        <v>118.2899652605421</v>
+        <v>164.7473137310546</v>
       </c>
       <c r="AD4" t="n">
-        <v>95575.43025683012</v>
+        <v>133111.8439237124</v>
       </c>
       <c r="AE4" t="n">
-        <v>130770.5201677385</v>
+        <v>182129.4973364383</v>
       </c>
       <c r="AF4" t="n">
         <v>2.820616234366481e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.055555555555555</v>
       </c>
       <c r="AH4" t="n">
-        <v>118289.9652605421</v>
+        <v>164747.3137310546</v>
       </c>
     </row>
   </sheetData>
@@ -18908,28 +18908,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>95.094113030841</v>
+        <v>132.3521481202305</v>
       </c>
       <c r="AB2" t="n">
-        <v>130.1119607049232</v>
+        <v>181.0900480227014</v>
       </c>
       <c r="AC2" t="n">
-        <v>117.6942577885636</v>
+        <v>163.8070680009442</v>
       </c>
       <c r="AD2" t="n">
-        <v>95094.11303084101</v>
+        <v>132352.1481202305</v>
       </c>
       <c r="AE2" t="n">
-        <v>130111.9607049232</v>
+        <v>181090.0480227014</v>
       </c>
       <c r="AF2" t="n">
         <v>2.999757100458695e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.506944444444445</v>
       </c>
       <c r="AH2" t="n">
-        <v>117694.2577885636</v>
+        <v>163807.0680009442</v>
       </c>
     </row>
     <row r="3">
@@ -19014,28 +19014,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>93.72893142119324</v>
+        <v>130.8854812840975</v>
       </c>
       <c r="AB3" t="n">
-        <v>128.2440589990421</v>
+        <v>179.083289752731</v>
       </c>
       <c r="AC3" t="n">
-        <v>116.0046259998747</v>
+        <v>161.9918319237563</v>
       </c>
       <c r="AD3" t="n">
-        <v>93728.93142119324</v>
+        <v>130885.4812840975</v>
       </c>
       <c r="AE3" t="n">
-        <v>128244.0589990421</v>
+        <v>179083.289752731</v>
       </c>
       <c r="AF3" t="n">
         <v>3.168289713893375e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.055555555555555</v>
       </c>
       <c r="AH3" t="n">
-        <v>116004.6259998747</v>
+        <v>161991.8319237563</v>
       </c>
     </row>
   </sheetData>
@@ -19311,28 +19311,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>90.63419262003319</v>
+        <v>127.1392198475693</v>
       </c>
       <c r="AB2" t="n">
-        <v>124.009700841057</v>
+        <v>173.9574895818855</v>
       </c>
       <c r="AC2" t="n">
-        <v>112.1743890415274</v>
+        <v>157.3552309271089</v>
       </c>
       <c r="AD2" t="n">
-        <v>90634.19262003319</v>
+        <v>127139.2198475693</v>
       </c>
       <c r="AE2" t="n">
-        <v>124009.700841057</v>
+        <v>173957.4895818855</v>
       </c>
       <c r="AF2" t="n">
         <v>3.955940826771622e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.530092592592593</v>
       </c>
       <c r="AH2" t="n">
-        <v>112174.3890415274</v>
+        <v>157355.2309271089</v>
       </c>
     </row>
   </sheetData>
@@ -19608,28 +19608,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>129.9126027487951</v>
+        <v>187.6010484833167</v>
       </c>
       <c r="AB2" t="n">
-        <v>177.7521544203592</v>
+        <v>256.6840309088983</v>
       </c>
       <c r="AC2" t="n">
-        <v>160.7877382792454</v>
+        <v>232.1864672573279</v>
       </c>
       <c r="AD2" t="n">
-        <v>129912.6027487952</v>
+        <v>187601.0484833167</v>
       </c>
       <c r="AE2" t="n">
-        <v>177752.1544203592</v>
+        <v>256684.0309088983</v>
       </c>
       <c r="AF2" t="n">
         <v>1.676792317377241e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.81018518518519</v>
       </c>
       <c r="AH2" t="n">
-        <v>160787.7382792454</v>
+        <v>232186.4672573279</v>
       </c>
     </row>
     <row r="3">
@@ -19714,28 +19714,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>103.6958280272521</v>
+        <v>151.7638385695566</v>
       </c>
       <c r="AB3" t="n">
-        <v>141.8812066438902</v>
+        <v>207.6499792787982</v>
       </c>
       <c r="AC3" t="n">
-        <v>128.3402634133598</v>
+        <v>187.8321566950652</v>
       </c>
       <c r="AD3" t="n">
-        <v>103695.8280272521</v>
+        <v>151763.8385695567</v>
       </c>
       <c r="AE3" t="n">
-        <v>141881.2066438902</v>
+        <v>207649.9792787982</v>
       </c>
       <c r="AF3" t="n">
         <v>2.015808712954623e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.993055555555555</v>
       </c>
       <c r="AH3" t="n">
-        <v>128340.2634133598</v>
+        <v>187832.1566950652</v>
       </c>
     </row>
     <row r="4">
@@ -19820,28 +19820,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>101.4492300076967</v>
+        <v>139.8636509688606</v>
       </c>
       <c r="AB4" t="n">
-        <v>138.8073121206264</v>
+        <v>191.3676176043096</v>
       </c>
       <c r="AC4" t="n">
-        <v>125.5597370691573</v>
+        <v>173.1037607663465</v>
       </c>
       <c r="AD4" t="n">
-        <v>101449.2300076967</v>
+        <v>139863.6509688605</v>
       </c>
       <c r="AE4" t="n">
-        <v>138807.3121206264</v>
+        <v>191367.6176043096</v>
       </c>
       <c r="AF4" t="n">
         <v>2.147343942647464e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.4375</v>
       </c>
       <c r="AH4" t="n">
-        <v>125559.7370691573</v>
+        <v>173103.7607663465</v>
       </c>
     </row>
     <row r="5">
@@ -19926,28 +19926,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>100.3708498027263</v>
+        <v>138.7852707638901</v>
       </c>
       <c r="AB5" t="n">
-        <v>137.3318247494097</v>
+        <v>189.8921302330928</v>
       </c>
       <c r="AC5" t="n">
-        <v>124.2250681417894</v>
+        <v>171.7690918389786</v>
       </c>
       <c r="AD5" t="n">
-        <v>100370.8498027263</v>
+        <v>138785.2707638901</v>
       </c>
       <c r="AE5" t="n">
-        <v>137331.8247494097</v>
+        <v>189892.1302330928</v>
       </c>
       <c r="AF5" t="n">
         <v>2.196544382134953e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.252314814814815</v>
       </c>
       <c r="AH5" t="n">
-        <v>124225.0681417895</v>
+        <v>171769.0918389786</v>
       </c>
     </row>
     <row r="6">
@@ -20032,28 +20032,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>99.99365945704368</v>
+        <v>138.4080804182075</v>
       </c>
       <c r="AB6" t="n">
-        <v>136.8157362779834</v>
+        <v>189.3760417616665</v>
       </c>
       <c r="AC6" t="n">
-        <v>123.7582344297412</v>
+        <v>171.3022581269304</v>
       </c>
       <c r="AD6" t="n">
-        <v>99993.65945704367</v>
+        <v>138408.0804182075</v>
       </c>
       <c r="AE6" t="n">
-        <v>136815.7362779834</v>
+        <v>189376.0417616665</v>
       </c>
       <c r="AF6" t="n">
         <v>2.213362100788538e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>9</v>
+        <v>8.182870370370372</v>
       </c>
       <c r="AH6" t="n">
-        <v>123758.2344297412</v>
+        <v>171302.2581269304</v>
       </c>
     </row>
   </sheetData>
@@ -20329,28 +20329,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>158.7205530217473</v>
+        <v>217.0712059718017</v>
       </c>
       <c r="AB2" t="n">
-        <v>217.1684629008618</v>
+        <v>297.0064005162129</v>
       </c>
       <c r="AC2" t="n">
-        <v>196.4422095995178</v>
+        <v>268.6605265021344</v>
       </c>
       <c r="AD2" t="n">
-        <v>158720.5530217473</v>
+        <v>217071.2059718017</v>
       </c>
       <c r="AE2" t="n">
-        <v>217168.4629008618</v>
+        <v>297006.4005162129</v>
       </c>
       <c r="AF2" t="n">
         <v>1.347742605804804e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.15277777777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>196442.2095995178</v>
+        <v>268660.5265021344</v>
       </c>
     </row>
     <row r="3">
@@ -20435,28 +20435,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>118.9820067444518</v>
+        <v>167.6636507092507</v>
       </c>
       <c r="AB3" t="n">
-        <v>162.796430743362</v>
+        <v>229.4048036985225</v>
       </c>
       <c r="AC3" t="n">
-        <v>147.2593678794861</v>
+        <v>207.5107312052658</v>
       </c>
       <c r="AD3" t="n">
-        <v>118982.0067444518</v>
+        <v>167663.6507092507</v>
       </c>
       <c r="AE3" t="n">
-        <v>162796.430743362</v>
+        <v>229404.8036985225</v>
       </c>
       <c r="AF3" t="n">
         <v>1.688360633432221e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.699074074074074</v>
       </c>
       <c r="AH3" t="n">
-        <v>147259.3678794861</v>
+        <v>207510.7312052658</v>
       </c>
     </row>
     <row r="4">
@@ -20541,28 +20541,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>105.8549772857814</v>
+        <v>154.5024558317996</v>
       </c>
       <c r="AB4" t="n">
-        <v>144.835449914351</v>
+        <v>211.3970762362637</v>
       </c>
       <c r="AC4" t="n">
-        <v>131.0125578523953</v>
+        <v>191.221635977995</v>
       </c>
       <c r="AD4" t="n">
-        <v>105854.9772857814</v>
+        <v>154502.4558317996</v>
       </c>
       <c r="AE4" t="n">
-        <v>144835.449914351</v>
+        <v>211397.0762362637</v>
       </c>
       <c r="AF4" t="n">
         <v>1.836320701346477e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.923611111111112</v>
       </c>
       <c r="AH4" t="n">
-        <v>131012.5578523953</v>
+        <v>191221.635977995</v>
       </c>
     </row>
     <row r="5">
@@ -20647,28 +20647,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>104.6978406862412</v>
+        <v>153.3453192322594</v>
       </c>
       <c r="AB5" t="n">
-        <v>143.2522045695971</v>
+        <v>209.8138308915097</v>
       </c>
       <c r="AC5" t="n">
-        <v>129.5804152212453</v>
+        <v>189.789493346845</v>
       </c>
       <c r="AD5" t="n">
-        <v>104697.8406862412</v>
+        <v>153345.3192322594</v>
       </c>
       <c r="AE5" t="n">
-        <v>143252.2045695971</v>
+        <v>209813.8308915097</v>
       </c>
       <c r="AF5" t="n">
         <v>1.888687557170391e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.668981481481483</v>
       </c>
       <c r="AH5" t="n">
-        <v>129580.4152212453</v>
+        <v>189789.493346845</v>
       </c>
     </row>
     <row r="6">
@@ -20753,28 +20753,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>103.8375274887215</v>
+        <v>142.8170080793414</v>
       </c>
       <c r="AB6" t="n">
-        <v>142.0750860984115</v>
+        <v>195.4085310957877</v>
       </c>
       <c r="AC6" t="n">
-        <v>128.5156392848532</v>
+        <v>176.7590151456569</v>
       </c>
       <c r="AD6" t="n">
-        <v>103837.5274887215</v>
+        <v>142817.0080793414</v>
       </c>
       <c r="AE6" t="n">
-        <v>142075.0860984115</v>
+        <v>195408.5310957876</v>
       </c>
       <c r="AF6" t="n">
         <v>1.919349263890309e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>9</v>
+        <v>8.530092592592593</v>
       </c>
       <c r="AH6" t="n">
-        <v>128515.6392848532</v>
+        <v>176759.0151456569</v>
       </c>
     </row>
     <row r="7">
@@ -20859,28 +20859,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>102.8909080820855</v>
+        <v>141.7689034462202</v>
       </c>
       <c r="AB7" t="n">
-        <v>140.779879664352</v>
+        <v>193.9744680976389</v>
       </c>
       <c r="AC7" t="n">
-        <v>127.3440455350263</v>
+        <v>175.4618171073309</v>
       </c>
       <c r="AD7" t="n">
-        <v>102890.9080820855</v>
+        <v>141768.9034462202</v>
       </c>
       <c r="AE7" t="n">
-        <v>140779.879664352</v>
+        <v>193974.4680976389</v>
       </c>
       <c r="AF7" t="n">
         <v>1.954552921628731e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>9</v>
+        <v>8.37962962962963</v>
       </c>
       <c r="AH7" t="n">
-        <v>127344.0455350263</v>
+        <v>175461.8171073309</v>
       </c>
     </row>
     <row r="8">
@@ -20965,28 +20965,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>102.3096390551473</v>
+        <v>141.187634419282</v>
       </c>
       <c r="AB8" t="n">
-        <v>139.9845617379159</v>
+        <v>193.1791501712028</v>
       </c>
       <c r="AC8" t="n">
-        <v>126.6246316352532</v>
+        <v>174.7424032075579</v>
       </c>
       <c r="AD8" t="n">
-        <v>102309.6390551473</v>
+        <v>141187.634419282</v>
       </c>
       <c r="AE8" t="n">
-        <v>139984.5617379159</v>
+        <v>193179.1501712028</v>
       </c>
       <c r="AF8" t="n">
         <v>1.979696370101872e-05</v>
       </c>
       <c r="AG8" t="n">
-        <v>9</v>
+        <v>8.275462962962964</v>
       </c>
       <c r="AH8" t="n">
-        <v>126624.6316352532</v>
+        <v>174742.4032075579</v>
       </c>
     </row>
   </sheetData>
@@ -21262,28 +21262,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>98.40763511861333</v>
+        <v>134.4931581606378</v>
       </c>
       <c r="AB2" t="n">
-        <v>134.6456678076885</v>
+        <v>184.0194724146819</v>
       </c>
       <c r="AC2" t="n">
-        <v>121.7952742485403</v>
+        <v>166.456912240428</v>
       </c>
       <c r="AD2" t="n">
-        <v>98407.63511861333</v>
+        <v>134493.1581606378</v>
       </c>
       <c r="AE2" t="n">
-        <v>134645.6678076885</v>
+        <v>184019.4724146819</v>
       </c>
       <c r="AF2" t="n">
         <v>4.34104837490597e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.155092592592593</v>
       </c>
       <c r="AH2" t="n">
-        <v>121795.2742485403</v>
+        <v>166456.9122404279</v>
       </c>
     </row>
   </sheetData>
@@ -21559,28 +21559,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>109.8533270151664</v>
+        <v>147.5926040683004</v>
       </c>
       <c r="AB2" t="n">
-        <v>150.3061684088336</v>
+        <v>201.9427122123037</v>
       </c>
       <c r="AC2" t="n">
-        <v>135.9611586519677</v>
+        <v>182.6695831871955</v>
       </c>
       <c r="AD2" t="n">
-        <v>109853.3270151664</v>
+        <v>147592.6040683004</v>
       </c>
       <c r="AE2" t="n">
-        <v>150306.1684088336</v>
+        <v>201942.7122123037</v>
       </c>
       <c r="AF2" t="n">
         <v>2.355344635922878e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.201388888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>135961.1586519677</v>
+        <v>182669.5831871954</v>
       </c>
     </row>
     <row r="3">
@@ -21665,28 +21665,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>96.87622973350445</v>
+        <v>134.5813413678576</v>
       </c>
       <c r="AB3" t="n">
-        <v>132.5503313989462</v>
+        <v>184.1401285691685</v>
       </c>
       <c r="AC3" t="n">
-        <v>119.8999138058246</v>
+        <v>166.5660531408724</v>
       </c>
       <c r="AD3" t="n">
-        <v>96876.22973350444</v>
+        <v>134581.3413678576</v>
       </c>
       <c r="AE3" t="n">
-        <v>132550.3313989462</v>
+        <v>184140.1285691685</v>
       </c>
       <c r="AF3" t="n">
         <v>2.648403621617829e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.182870370370372</v>
       </c>
       <c r="AH3" t="n">
-        <v>119899.9138058246</v>
+        <v>166566.0531408724</v>
       </c>
     </row>
     <row r="4">
@@ -21771,28 +21771,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>86.66310622156458</v>
+        <v>133.810314686575</v>
       </c>
       <c r="AB4" t="n">
-        <v>118.5762852387075</v>
+        <v>183.0851758485417</v>
       </c>
       <c r="AC4" t="n">
-        <v>107.2595309984177</v>
+        <v>165.6117836272664</v>
       </c>
       <c r="AD4" t="n">
-        <v>86663.10622156458</v>
+        <v>133810.314686575</v>
       </c>
       <c r="AE4" t="n">
-        <v>118576.2852387075</v>
+        <v>183085.1758485417</v>
       </c>
       <c r="AF4" t="n">
         <v>2.707464551301946e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.997685185185186</v>
       </c>
       <c r="AH4" t="n">
-        <v>107259.5309984177</v>
+        <v>165611.7836272664</v>
       </c>
     </row>
   </sheetData>
@@ -22068,28 +22068,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>125.4288507246325</v>
+        <v>173.1362706625384</v>
       </c>
       <c r="AB2" t="n">
-        <v>171.6172870917243</v>
+        <v>236.8926837535596</v>
       </c>
       <c r="AC2" t="n">
-        <v>155.2383740781131</v>
+        <v>214.2839784971582</v>
       </c>
       <c r="AD2" t="n">
-        <v>125428.8507246325</v>
+        <v>173136.2706625384</v>
       </c>
       <c r="AE2" t="n">
-        <v>171617.2870917243</v>
+        <v>236892.6837535596</v>
       </c>
       <c r="AF2" t="n">
         <v>1.909123911846922e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.10416666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>155238.3740781131</v>
+        <v>214283.9784971582</v>
       </c>
     </row>
     <row r="3">
@@ -22174,28 +22174,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>100.9885304436161</v>
+        <v>148.7291047704456</v>
       </c>
       <c r="AB3" t="n">
-        <v>138.1769626524213</v>
+        <v>203.4977226118503</v>
       </c>
       <c r="AC3" t="n">
-        <v>124.9895472694964</v>
+        <v>184.0761855766807</v>
       </c>
       <c r="AD3" t="n">
-        <v>100988.5304436161</v>
+        <v>148729.1047704456</v>
       </c>
       <c r="AE3" t="n">
-        <v>138176.9626524213</v>
+        <v>203497.7226118503</v>
       </c>
       <c r="AF3" t="n">
         <v>2.227663941862596e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.657407407407408</v>
       </c>
       <c r="AH3" t="n">
-        <v>124989.5472694964</v>
+        <v>184076.1855766807</v>
       </c>
     </row>
     <row r="4">
@@ -22280,28 +22280,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>99.08990590876233</v>
+        <v>137.2423778975462</v>
       </c>
       <c r="AB4" t="n">
-        <v>135.5791808024329</v>
+        <v>187.7810761457328</v>
       </c>
       <c r="AC4" t="n">
-        <v>122.6396940732603</v>
+        <v>169.8595137908326</v>
       </c>
       <c r="AD4" t="n">
-        <v>99089.90590876233</v>
+        <v>137242.3778975462</v>
       </c>
       <c r="AE4" t="n">
-        <v>135579.1808024328</v>
+        <v>187781.0761457327</v>
       </c>
       <c r="AF4" t="n">
         <v>2.349457679013912e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.206018518518519</v>
       </c>
       <c r="AH4" t="n">
-        <v>122639.6940732603</v>
+        <v>169859.5137908325</v>
       </c>
     </row>
     <row r="5">
@@ -22386,28 +22386,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>98.65014275641278</v>
+        <v>136.8026147451966</v>
       </c>
       <c r="AB5" t="n">
-        <v>134.9774774564075</v>
+        <v>187.1793727997074</v>
       </c>
       <c r="AC5" t="n">
-        <v>122.0954164500834</v>
+        <v>169.3152361676557</v>
       </c>
       <c r="AD5" t="n">
-        <v>98650.14275641278</v>
+        <v>136802.6147451966</v>
       </c>
       <c r="AE5" t="n">
-        <v>134977.4774564074</v>
+        <v>187179.3727997074</v>
       </c>
       <c r="AF5" t="n">
         <v>2.370820323839195e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.136574074074074</v>
       </c>
       <c r="AH5" t="n">
-        <v>122095.4164500834</v>
+        <v>169315.2361676557</v>
       </c>
     </row>
   </sheetData>
